--- a/Add visit.xlsx
+++ b/Add visit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testcomplete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Github-Testcomplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2316CD3F-0670-46EA-81BF-22EB5C39820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F20C73-C7C2-4FFB-8BE3-40094A5A7623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{11EFF33C-FC3B-44A6-B75C-45A231774CD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11EFF33C-FC3B-44A6-B75C-45A231774CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>First name</t>
   </si>
@@ -102,16 +102,13 @@
   </si>
   <si>
     <t>VVIP</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,13 +480,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -543,8 +544,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
+      <c r="D2" s="1">
+        <v>45687</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
